--- a/WebTours/webTour_data.xlsx
+++ b/WebTours/webTour_data.xlsx
@@ -17,16 +17,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
-    <t>url地址</t>
-  </si>
-  <si>
-    <t>请求数据</t>
-  </si>
-  <si>
-    <t>期望值</t>
-  </si>
-  <si>
-    <t>请求方法</t>
+    <t>url</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
   <si>
     <t>http://localhost:1080/cgi-bin/login.pl</t>
@@ -112,7 +112,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,27 +122,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,15 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,33 +171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,9 +187,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,7 +218,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +249,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -265,14 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,11 +507,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,199 +604,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -767,10 +760,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1115,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/WebTours/webTour_data.xlsx
+++ b/WebTours/webTour_data.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+  <si>
+    <t>testcase_title</t>
+  </si>
   <si>
     <t>url</t>
   </si>
@@ -29,6 +32,9 @@
     <t>method</t>
   </si>
   <si>
+    <t>正常登录，登录成功</t>
+  </si>
+  <si>
     <t>http://localhost:1080/cgi-bin/login.pl</t>
   </si>
   <si>
@@ -41,10 +47,16 @@
     <t>post</t>
   </si>
   <si>
+    <t>密码错误，登录失败</t>
+  </si>
+  <si>
     <t>{"userSession": None, "username": "test1", "password": "123457", "login.x": 25,"login.y": 3, "login": "Login", "JSFormSubmit": "off"}</t>
   </si>
   <si>
     <t>error.pl?error=badPassword</t>
+  </si>
+  <si>
+    <t>账号错误，登录失败</t>
   </si>
   <si>
     <r>
@@ -107,8 +119,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -134,6 +146,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -158,7 +185,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,13 +224,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +238,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,77 +262,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,103 +297,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,79 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +519,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,30 +550,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +579,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -593,27 +616,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +634,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,16 +1124,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="75.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1133,47 +1149,59 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1233,7 @@
     <row r="2" spans="4:7">
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1213,7 +1241,7 @@
     <row r="3" spans="4:7">
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1221,7 +1249,7 @@
     <row r="4" spans="4:7">
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1229,7 +1257,7 @@
     <row r="5" spans="4:7">
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1237,7 +1265,7 @@
     <row r="6" spans="4:7">
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1245,7 +1273,7 @@
     <row r="7" spans="4:7">
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1253,7 +1281,7 @@
     <row r="8" spans="4:7">
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1261,7 +1289,7 @@
     <row r="9" spans="4:7">
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1269,7 +1297,7 @@
     <row r="10" spans="4:7">
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1277,7 +1305,7 @@
     <row r="11" spans="4:7">
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1285,7 +1313,7 @@
     <row r="12" spans="4:7">
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1293,7 +1321,7 @@
     <row r="13" spans="4:7">
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>

--- a/WebTours/webTour_data.xlsx
+++ b/WebTours/webTour_data.xlsx
@@ -15,11 +15,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+  <si>
+    <t>testcase_id</t>
+  </si>
+  <si>
+    <r>
+      <t>function_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>module</t>
+    </r>
+  </si>
   <si>
     <t>testcase_title</t>
   </si>
   <si>
+    <t>method</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -29,12 +49,15 @@
     <t>expected</t>
   </si>
   <si>
-    <t>method</t>
+    <t>login</t>
   </si>
   <si>
     <t>正常登录，登录成功</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>http://localhost:1080/cgi-bin/login.pl</t>
   </si>
   <si>
@@ -42,9 +65,6 @@
   </si>
   <si>
     <t>login.pl?intro=true</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>密码错误，登录失败</t>
@@ -119,12 +139,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -147,23 +175,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +234,49 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,28 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -238,49 +297,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9.8"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -297,19 +323,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,13 +443,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,145 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,13 +545,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -578,26 +608,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,16 +633,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,26 +1150,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="75.75" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="6" max="6" width="75.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1152,56 +1179,80 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1284,7 @@
     <row r="2" spans="4:7">
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1241,7 +1292,7 @@
     <row r="3" spans="4:7">
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1249,7 +1300,7 @@
     <row r="4" spans="4:7">
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1257,7 +1308,7 @@
     <row r="5" spans="4:7">
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1265,7 +1316,7 @@
     <row r="6" spans="4:7">
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1273,7 +1324,7 @@
     <row r="7" spans="4:7">
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1281,7 +1332,7 @@
     <row r="8" spans="4:7">
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1289,7 +1340,7 @@
     <row r="9" spans="4:7">
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1297,7 +1348,7 @@
     <row r="10" spans="4:7">
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1305,7 +1356,7 @@
     <row r="11" spans="4:7">
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1313,7 +1364,7 @@
     <row r="12" spans="4:7">
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1321,7 +1372,7 @@
     <row r="13" spans="4:7">
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
